--- a/data/trans_orig/P04A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B854DD5-AFAD-41A2-8992-FEBB284F1CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF54DF1-D8F2-4A19-8E0B-999F7924C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F966E525-86F1-4E41-841E-19E9FFBF63B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99C41585-3CCE-456C-AC48-AA81E72D2EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="216">
-  <si>
-    <t>Población según si lavivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
+  <si>
+    <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,568 +74,595 @@
     <t>1,27%</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>En cesión (gratuita o bajo precio)</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>En alquiler</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>En propiedad, por herencia o donación</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>En cesión (gratuita o bajo precio)</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>En alquiler</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>En propiedad, por herencia o donación</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>22,65%</t>
+    <t>22,8%</t>
   </si>
   <si>
     <t>26,3%</t>
@@ -647,40 +674,43 @@
     <t>21,35%</t>
   </si>
   <si>
-    <t>25,21%</t>
+    <t>25,23%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>25,28%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>57,72%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>60,46%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
   </si>
   <si>
     <t>59,17%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC71656-1D6E-4C74-9087-BEE69827A3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F2EDFB-B4A2-41F1-82DF-E80ECB5E1845}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1441,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>134</v>
@@ -1453,19 +1483,19 @@
         <v>106505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>510</v>
@@ -1474,13 +1504,13 @@
         <v>390688</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>1161</v>
@@ -1489,13 +1519,13 @@
         <v>663972</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>1671</v>
@@ -1504,13 +1534,13 @@
         <v>1054659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,13 +1555,13 @@
         <v>539107</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1421</v>
@@ -1540,13 +1570,13 @@
         <v>832810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>2110</v>
@@ -1555,18 +1585,18 @@
         <v>1371917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1578,13 +1608,13 @@
         <v>21340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -1593,7 +1623,7 @@
         <v>10380</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -1644,13 +1674,13 @@
         <v>34649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -1659,13 +1689,13 @@
         <v>70132</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,13 +1710,13 @@
         <v>231126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -1695,13 +1725,13 @@
         <v>262996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
@@ -1710,13 +1740,13 @@
         <v>494122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,13 +1761,13 @@
         <v>119648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -1746,13 +1776,13 @@
         <v>84205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
@@ -1761,13 +1791,13 @@
         <v>203853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1812,13 @@
         <v>566573</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>780</v>
@@ -1797,13 +1827,13 @@
         <v>613418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>1252</v>
@@ -1812,19 +1842,19 @@
         <v>1179991</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>1120</v>
@@ -1833,13 +1863,13 @@
         <v>1174418</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>1622</v>
@@ -1848,13 +1878,13 @@
         <v>1237404</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>2742</v>
@@ -1863,13 +1893,13 @@
         <v>2411822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1914,13 @@
         <v>2148588</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>2912</v>
@@ -1899,13 +1929,13 @@
         <v>2243052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>4899</v>
@@ -1914,18 +1944,18 @@
         <v>4391640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1937,13 +1967,13 @@
         <v>4503</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1952,13 +1982,13 @@
         <v>2648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -1967,13 +1997,13 @@
         <v>7151</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +2018,13 @@
         <v>4562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2006,10 +2036,10 @@
         <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2018,13 +2048,13 @@
         <v>13757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2069,13 @@
         <v>65950</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -2054,13 +2084,13 @@
         <v>56718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -2069,13 +2099,13 @@
         <v>122667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2120,13 @@
         <v>17963</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -2105,13 +2135,13 @@
         <v>24033</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -2120,13 +2150,13 @@
         <v>41996</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2171,13 @@
         <v>202487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -2156,13 +2186,13 @@
         <v>229403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>465</v>
@@ -2171,19 +2201,19 @@
         <v>431890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>410</v>
@@ -2192,13 +2222,13 @@
         <v>370797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>567</v>
@@ -2207,13 +2237,13 @@
         <v>386820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>977</v>
@@ -2222,13 +2252,13 @@
         <v>757617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2273,13 @@
         <v>666262</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>999</v>
@@ -2258,13 +2288,13 @@
         <v>708817</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1675</v>
@@ -2273,13 +2303,13 @@
         <v>1375079</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2326,13 @@
         <v>32675</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2311,13 +2341,13 @@
         <v>25504</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -2326,13 +2356,13 @@
         <v>58179</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2377,13 @@
         <v>58672</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -2362,13 +2392,13 @@
         <v>54670</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -2377,13 +2407,13 @@
         <v>113342</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2428,13 @@
         <v>339994</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>517</v>
@@ -2413,13 +2443,13 @@
         <v>376940</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>912</v>
@@ -2428,13 +2458,13 @@
         <v>716934</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2479,13 @@
         <v>165861</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>193</v>
@@ -2464,13 +2494,13 @@
         <v>141834</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>340</v>
@@ -2479,13 +2509,13 @@
         <v>307696</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2530,13 @@
         <v>820852</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>1164</v>
@@ -2515,13 +2545,13 @@
         <v>897534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>1851</v>
@@ -2530,19 +2560,19 @@
         <v>1718386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>2040</v>
@@ -2551,13 +2581,13 @@
         <v>1935903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>3350</v>
@@ -2566,13 +2596,13 @@
         <v>2288195</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>5390</v>
@@ -2581,13 +2611,13 @@
         <v>4224099</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2632,13 @@
         <v>3353958</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>5332</v>
@@ -2617,13 +2647,13 @@
         <v>3784678</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>8684</v>
@@ -2632,18 +2662,18 @@
         <v>7138636</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF54DF1-D8F2-4A19-8E0B-999F7924C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAEB8FF5-8CA9-4F8A-9DDE-D270A657269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99C41585-3CCE-456C-AC48-AA81E72D2EFA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{27EBFC2C-370E-48A6-85DC-96066DDA4192}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="219">
   <si>
     <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -71,646 +71,625 @@
     <t>Otra situación</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>En cesión (gratuita o bajo precio)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>En alquiler</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>En propiedad, por herencia o donación</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>En cesión (gratuita o bajo precio)</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>En alquiler</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>En propiedad, por herencia o donación</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1125,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F2EDFB-B4A2-41F1-82DF-E80ECB5E1845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9D7AF9-E176-4C34-96B5-99766205306C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1246,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>6832</v>
+        <v>6577</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1261,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>12476</v>
+        <v>11158</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1276,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>19308</v>
+        <v>17735</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1297,7 +1276,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>18627</v>
+        <v>17592</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1312,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>10827</v>
+        <v>9808</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1327,7 +1306,7 @@
         <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>29453</v>
+        <v>27400</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1348,7 +1327,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="7">
-        <v>42919</v>
+        <v>41932</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1363,7 +1342,7 @@
         <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>57226</v>
+        <v>51731</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1378,7 +1357,7 @@
         <v>160</v>
       </c>
       <c r="N6" s="7">
-        <v>100145</v>
+        <v>93663</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1399,7 +1378,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>28250</v>
+        <v>26824</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1414,7 +1393,7 @@
         <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>33596</v>
+        <v>31813</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1429,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>61846</v>
+        <v>58637</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1450,7 +1429,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>51792</v>
+        <v>51954</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1465,7 +1444,7 @@
         <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>54714</v>
+        <v>51066</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1480,7 +1459,7 @@
         <v>134</v>
       </c>
       <c r="N8" s="7">
-        <v>106505</v>
+        <v>103020</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1501,7 +1480,7 @@
         <v>510</v>
       </c>
       <c r="D9" s="7">
-        <v>390688</v>
+        <v>367558</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1516,7 +1495,7 @@
         <v>1161</v>
       </c>
       <c r="I9" s="7">
-        <v>663972</v>
+        <v>597027</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1531,7 +1510,7 @@
         <v>1671</v>
       </c>
       <c r="N9" s="7">
-        <v>1054659</v>
+        <v>964585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1552,7 +1531,7 @@
         <v>689</v>
       </c>
       <c r="D10" s="7">
-        <v>539107</v>
+        <v>512437</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -1567,7 +1546,7 @@
         <v>1421</v>
       </c>
       <c r="I10" s="7">
-        <v>832810</v>
+        <v>752604</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -1582,7 +1561,7 @@
         <v>2110</v>
       </c>
       <c r="N10" s="7">
-        <v>1371917</v>
+        <v>1265041</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -1605,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>21340</v>
+        <v>21018</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -1614,37 +1593,37 @@
         <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>10380</v>
+        <v>9786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>31720</v>
+        <v>30804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1635,46 @@
         <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>35483</v>
+        <v>33832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>34649</v>
+        <v>31704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
       </c>
       <c r="N12" s="7">
-        <v>70132</v>
+        <v>65535</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,46 +1686,46 @@
         <v>249</v>
       </c>
       <c r="D13" s="7">
-        <v>231126</v>
+        <v>224226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
       </c>
       <c r="I13" s="7">
-        <v>262996</v>
+        <v>298081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
       </c>
       <c r="N13" s="7">
-        <v>494122</v>
+        <v>522307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,46 +1737,46 @@
         <v>98</v>
       </c>
       <c r="D14" s="7">
-        <v>119648</v>
+        <v>125354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
       </c>
       <c r="I14" s="7">
-        <v>84205</v>
+        <v>79766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
       </c>
       <c r="N14" s="7">
-        <v>203853</v>
+        <v>205120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,46 +1788,46 @@
         <v>472</v>
       </c>
       <c r="D15" s="7">
-        <v>566573</v>
+        <v>562578</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>780</v>
       </c>
       <c r="I15" s="7">
-        <v>613418</v>
+        <v>564477</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>1252</v>
       </c>
       <c r="N15" s="7">
-        <v>1179991</v>
+        <v>1127055</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,46 +1839,46 @@
         <v>1120</v>
       </c>
       <c r="D16" s="7">
-        <v>1174418</v>
+        <v>1307015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>1622</v>
       </c>
       <c r="I16" s="7">
-        <v>1237404</v>
+        <v>1248024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>2742</v>
       </c>
       <c r="N16" s="7">
-        <v>2411822</v>
+        <v>2555039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,7 +1890,7 @@
         <v>1987</v>
       </c>
       <c r="D17" s="7">
-        <v>2148588</v>
+        <v>2274023</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -1926,7 +1905,7 @@
         <v>2912</v>
       </c>
       <c r="I17" s="7">
-        <v>2243052</v>
+        <v>2231838</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -1941,7 +1920,7 @@
         <v>4899</v>
       </c>
       <c r="N17" s="7">
-        <v>4391640</v>
+        <v>4505861</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1955,7 +1934,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1964,22 +1943,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>4503</v>
+        <v>4524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>2648</v>
+        <v>2447</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -1988,22 +1967,22 @@
         <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>7151</v>
+        <v>6972</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,37 +1994,37 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>4562</v>
+        <v>4449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>9194</v>
+        <v>8637</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>13757</v>
+        <v>13086</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>137</v>
@@ -2066,7 +2045,7 @@
         <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>65950</v>
+        <v>67896</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>140</v>
@@ -2081,7 +2060,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="7">
-        <v>56718</v>
+        <v>52220</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>143</v>
@@ -2096,7 +2075,7 @@
         <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>122667</v>
+        <v>120115</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>146</v>
@@ -2117,7 +2096,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>17963</v>
+        <v>18130</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>149</v>
@@ -2132,31 +2111,31 @@
         <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>24033</v>
+        <v>23434</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>41996</v>
+        <v>41565</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,46 +2147,46 @@
         <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>202487</v>
+        <v>194944</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
       </c>
       <c r="I22" s="7">
-        <v>229403</v>
+        <v>213820</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>465</v>
       </c>
       <c r="N22" s="7">
-        <v>431890</v>
+        <v>408764</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,46 +2198,46 @@
         <v>410</v>
       </c>
       <c r="D23" s="7">
-        <v>370797</v>
+        <v>350556</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>567</v>
       </c>
       <c r="I23" s="7">
-        <v>386820</v>
+        <v>355222</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>977</v>
       </c>
       <c r="N23" s="7">
-        <v>757617</v>
+        <v>705778</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2249,7 @@
         <v>676</v>
       </c>
       <c r="D24" s="7">
-        <v>666262</v>
+        <v>640500</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -2285,7 +2264,7 @@
         <v>999</v>
       </c>
       <c r="I24" s="7">
-        <v>708817</v>
+        <v>655780</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2300,7 +2279,7 @@
         <v>1675</v>
       </c>
       <c r="N24" s="7">
-        <v>1375079</v>
+        <v>1296280</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2323,46 +2302,46 @@
         <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>32675</v>
+        <v>32120</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>25504</v>
+        <v>23392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>58179</v>
+        <v>55512</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,46 +2353,46 @@
         <v>60</v>
       </c>
       <c r="D26" s="7">
-        <v>58672</v>
+        <v>55872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
       </c>
       <c r="I26" s="7">
-        <v>54670</v>
+        <v>50149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
       </c>
       <c r="N26" s="7">
-        <v>113342</v>
+        <v>106021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,46 +2404,46 @@
         <v>395</v>
       </c>
       <c r="D27" s="7">
-        <v>339994</v>
+        <v>334054</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>517</v>
       </c>
       <c r="I27" s="7">
-        <v>376940</v>
+        <v>402032</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>912</v>
       </c>
       <c r="N27" s="7">
-        <v>716934</v>
+        <v>736086</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,46 +2455,46 @@
         <v>147</v>
       </c>
       <c r="D28" s="7">
-        <v>165861</v>
+        <v>170309</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>193</v>
       </c>
       <c r="I28" s="7">
-        <v>141834</v>
+        <v>135013</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>340</v>
       </c>
       <c r="N28" s="7">
-        <v>307696</v>
+        <v>305322</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,46 +2506,46 @@
         <v>687</v>
       </c>
       <c r="D29" s="7">
-        <v>820852</v>
+        <v>809476</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>1164</v>
       </c>
       <c r="I29" s="7">
-        <v>897534</v>
+        <v>829363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>1851</v>
       </c>
       <c r="N29" s="7">
-        <v>1718386</v>
+        <v>1638839</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,46 +2557,46 @@
         <v>2040</v>
       </c>
       <c r="D30" s="7">
-        <v>1935903</v>
+        <v>2025129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>3350</v>
       </c>
       <c r="I30" s="7">
-        <v>2288195</v>
+        <v>2200273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>5390</v>
       </c>
       <c r="N30" s="7">
-        <v>4224099</v>
+        <v>4225402</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2608,7 @@
         <v>3352</v>
       </c>
       <c r="D31" s="7">
-        <v>3353958</v>
+        <v>3426960</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -2644,7 +2623,7 @@
         <v>5332</v>
       </c>
       <c r="I31" s="7">
-        <v>3784678</v>
+        <v>3640222</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -2659,7 +2638,7 @@
         <v>8684</v>
       </c>
       <c r="N31" s="7">
-        <v>7138636</v>
+        <v>7067182</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -2673,7 +2652,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
